--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCDE/10/seed3/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.5672</v>
+        <v>-11.7161</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.205599999999999</v>
+        <v>4.9497</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.77929999999999</v>
+        <v>-21.4925</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -607,7 +607,7 @@
         <v>-12.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-8.158299999999999</v>
+        <v>-7.895900000000003</v>
       </c>
       <c r="E10" t="n">
         <v>15.84</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.56799999999999</v>
+        <v>-21.58589999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.818300000000007</v>
+        <v>-7.859200000000004</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.755699999999996</v>
+        <v>4.850899999999995</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.60110000000001</v>
+        <v>16.43900000000001</v>
       </c>
     </row>
     <row r="17">
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.06490000000001</v>
+        <v>-22.12900000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.4782</v>
+        <v>-12.052</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-11.98310000000001</v>
+        <v>-11.8879</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.806400000000002</v>
+        <v>8.764599999999998</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -814,7 +814,7 @@
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>17.03150000000001</v>
+        <v>17.04370000000002</v>
       </c>
     </row>
     <row r="23">
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>16.1793</v>
+        <v>16.0645</v>
       </c>
     </row>
     <row r="27">
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.7465</v>
+        <v>-12.7268</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.911000000000004</v>
+        <v>5.009000000000004</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.160000000000004</v>
+        <v>5.1815</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.350500000000004</v>
+        <v>5.711400000000001</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-9.062599999999996</v>
+        <v>-8.993399999999998</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.719699999999993</v>
+        <v>-7.838499999999998</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.5279</v>
+        <v>-19.37939999999999</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.797099999999993</v>
+        <v>9.506199999999993</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.33140000000001</v>
+        <v>-12.14630000000001</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.1282</v>
+        <v>-8.204499999999998</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1182,13 +1182,13 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-12.65119999999999</v>
+        <v>-12.89789999999998</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.417</v>
+        <v>16.3946</v>
       </c>
     </row>
     <row r="45">
@@ -1233,7 +1233,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-11.9956</v>
+        <v>-12.3167</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1270,7 +1270,7 @@
         <v>-12.11</v>
       </c>
       <c r="D49" t="n">
-        <v>-8.404599999999999</v>
+        <v>-8.315400000000006</v>
       </c>
       <c r="E49" t="n">
         <v>16.49</v>
@@ -1358,12 +1358,12 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.50290000000001</v>
+        <v>16.48940000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.13039999999999</v>
+        <v>-22.2874</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1389,7 +1389,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.375699999999998</v>
+        <v>-8.220999999999997</v>
       </c>
       <c r="E56" t="n">
         <v>16.79</v>
@@ -1420,7 +1420,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-12.5824</v>
+        <v>-12.26089999999999</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>18.036</v>
+        <v>18.0815</v>
       </c>
     </row>
     <row r="64">
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.48440000000001</v>
+        <v>-21.51310000000001</v>
       </c>
       <c r="B68" t="n">
-        <v>4.515799999999996</v>
+        <v>4.557499999999998</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-6.948299999999998</v>
+        <v>-7.052699999999995</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.02970000000001</v>
+        <v>-12.0336</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.782099999999998</v>
+        <v>6.2182</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.11999999999999</v>
+        <v>-20.19139999999998</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.96269999999997</v>
+        <v>-19.96869999999997</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.667799999999999</v>
+        <v>-7.861200000000002</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.7743</v>
+        <v>16.8178</v>
       </c>
     </row>
     <row r="87">
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.725499999999993</v>
+        <v>4.866999999999993</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>4.737499999999996</v>
+        <v>4.735799999999998</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.124200000000003</v>
+        <v>-6.197500000000002</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.42159999999999</v>
+        <v>-12.5222</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>5.543900000000004</v>
+        <v>5.601200000000002</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.37729999999999</v>
+        <v>16.22089999999999</v>
       </c>
     </row>
     <row r="97">
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>5.970600000000002</v>
+        <v>6.916399999999999</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2148,10 +2148,10 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>9.795299999999992</v>
+        <v>9.549499999999993</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.51870000000001</v>
+        <v>-12.47490000000001</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.462200000000005</v>
+        <v>8.335000000000006</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
